--- a/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/食品_调味品_肉制品_休闲食品.xlsx
+++ b/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/食品_调味品_肉制品_休闲食品.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27260" windowHeight="12760" activeTab="1"/>
+    <workbookView windowWidth="27180" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="资产表分析" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,20 @@
     <sheet name="风险检查清单" sheetId="23" r:id="rId20"/>
     <sheet name="Sheet2" sheetId="24" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3087,17 +3100,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0000%"/>
-    <numFmt numFmtId="179" formatCode="#,##0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -3164,53 +3177,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3224,8 +3193,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3241,15 +3217,39 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3264,16 +3264,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3287,22 +3294,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3456,7 +3469,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3468,7 +3619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3480,151 +3631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3754,11 +3767,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3774,26 +3793,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3828,26 +3830,37 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3856,148 +3869,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4017,7 +4030,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4026,22 +4039,22 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4074,13 +4087,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4095,7 +4108,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4107,16 +4120,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4131,19 +4144,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -4176,7 +4189,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4185,25 +4198,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -4212,52 +4225,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4299,7 +4312,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4401,25 +4414,25 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4428,7 +4441,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4440,10 +4453,10 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -4452,13 +4465,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -4485,43 +4498,43 @@
     <xf numFmtId="44" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="8" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="8" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4536,46 +4549,46 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4584,22 +4597,22 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4614,13 +4627,13 @@
     <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4638,13 +4651,13 @@
     <xf numFmtId="44" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="13" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="15" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="15" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4656,10 +4669,10 @@
     <xf numFmtId="44" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="18" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="18" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="19" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="19" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4683,31 +4696,31 @@
     <xf numFmtId="44" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="20" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="20" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="21" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="21" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="21" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="21" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4728,7 +4741,7 @@
     <xf numFmtId="44" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="22" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="22" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4743,10 +4756,10 @@
     <xf numFmtId="10" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="4" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4761,13 +4774,13 @@
     <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4785,54 +4798,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5103,12 +5116,12 @@
   <sheetPr/>
   <dimension ref="A1:DP184"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="DN3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BF3" sqref="BF3"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -6246,7 +6259,7 @@
       </c>
       <c r="CP4" s="35">
         <f t="shared" si="14"/>
-        <v>-0.0949824578569492</v>
+        <v>-0.0949824578569509</v>
       </c>
       <c r="CQ4" s="52">
         <v>7820419296.51</v>
@@ -6288,7 +6301,7 @@
       </c>
       <c r="DB4" s="249">
         <f t="shared" ref="DB4:DB11" si="38">CX4/CO4</f>
-        <v>-4.54611189422088</v>
+        <v>-4.54611189422089</v>
       </c>
       <c r="DC4" s="35">
         <f t="shared" ref="DC4:DC13" si="39">AC4/CL4</f>
@@ -6570,7 +6583,7 @@
       </c>
       <c r="CP5" s="35">
         <f t="shared" si="14"/>
-        <v>0.0214272633608811</v>
+        <v>0.0214272633608831</v>
       </c>
       <c r="CQ5" s="52">
         <v>7643869224.91</v>
@@ -7569,7 +7582,7 @@
       </c>
       <c r="DB8" s="249">
         <f t="shared" ref="DB8:DB14" si="44">CX8/CO8</f>
-        <v>0.671740703089314</v>
+        <v>0.671740703089313</v>
       </c>
       <c r="DC8" s="35">
         <f t="shared" si="39"/>
@@ -8114,7 +8127,7 @@
       </c>
       <c r="BZ10" s="35">
         <f t="shared" si="32"/>
-        <v>-0.119922921379523</v>
+        <v>-0.119922921379524</v>
       </c>
       <c r="CA10" s="179">
         <v>1640624402.16</v>
@@ -8476,7 +8489,7 @@
       </c>
       <c r="CP11" s="36">
         <f t="shared" si="14"/>
-        <v>0.509773060642305</v>
+        <v>0.509773060642304</v>
       </c>
       <c r="CQ11" s="52">
         <v>2405116610.28</v>
@@ -8578,7 +8591,7 @@
       </c>
       <c r="K12" s="35">
         <f t="shared" si="0"/>
-        <v>0.0698111500437279</v>
+        <v>0.0698111500437277</v>
       </c>
       <c r="L12" s="157"/>
       <c r="M12" s="55">
@@ -8593,7 +8606,7 @@
       </c>
       <c r="P12" s="35">
         <f t="shared" si="22"/>
-        <v>0.0698111500437279</v>
+        <v>0.0698111500437277</v>
       </c>
       <c r="Q12" s="53"/>
       <c r="R12" s="35"/>
@@ -8771,7 +8784,7 @@
       </c>
       <c r="CM12" s="35">
         <f t="shared" si="13"/>
-        <v>0.0698111500437279</v>
+        <v>0.0698111500437277</v>
       </c>
       <c r="CN12" s="35">
         <f t="shared" si="33"/>
@@ -8881,7 +8894,7 @@
       <c r="I13" s="53"/>
       <c r="J13" s="53">
         <f t="shared" si="21"/>
-        <v>5.14627285513361</v>
+        <v>5.14627285513362</v>
       </c>
       <c r="K13" s="53"/>
       <c r="L13" s="157"/>
@@ -9366,7 +9379,7 @@
       <c r="CQ15" s="52"/>
       <c r="CR15" s="35">
         <f>STDEV(CR5:CR12)</f>
-        <v>0.0445427973710067</v>
+        <v>0.0445427973710069</v>
       </c>
       <c r="CS15" s="52"/>
       <c r="CT15" s="35"/>
@@ -10477,7 +10490,7 @@
       </c>
       <c r="DA20" s="35">
         <f t="shared" si="62"/>
-        <v>0.196077094323258</v>
+        <v>0.196077094323259</v>
       </c>
       <c r="DB20" s="249">
         <f t="shared" si="64"/>
@@ -14133,7 +14146,7 @@
       </c>
       <c r="BM38" s="38">
         <f t="shared" si="56"/>
-        <v>0.771623774039269</v>
+        <v>0.771623774039268</v>
       </c>
       <c r="BN38" s="38"/>
       <c r="BO38" s="166"/>
@@ -41110,7 +41123,7 @@
       </c>
       <c r="AF13" s="80">
         <f>AVERAGE(AF3:AF12)</f>
-        <v>1.35249971307937</v>
+        <v>1.35249971307936</v>
       </c>
       <c r="AG13" s="80">
         <f>AVERAGE(AG3:AG12)</f>
@@ -44184,12 +44197,12 @@
   <sheetPr/>
   <dimension ref="A1:GX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="FE3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K30" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="FW16" sqref="FW16"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -45469,7 +45482,7 @@
       </c>
       <c r="CN3" s="165">
         <f>CI3-CI4</f>
-        <v>112499964.74</v>
+        <v>112499964.739999</v>
       </c>
       <c r="CO3" s="165">
         <f>CJ3-CJ4</f>
@@ -45485,11 +45498,11 @@
       </c>
       <c r="CR3" s="165">
         <f>CM3-CM4</f>
-        <v>592558075.58</v>
+        <v>592558075.579999</v>
       </c>
       <c r="CS3" s="35">
         <f>(CI3-CI4)/CI4</f>
-        <v>0.0496775222517838</v>
+        <v>0.0496775222517836</v>
       </c>
       <c r="CT3" s="35">
         <f>(CJ3-CJ4)/CJ4</f>
@@ -45589,7 +45602,7 @@
       </c>
       <c r="EF3" s="165">
         <f>EA3-EA4</f>
-        <v>754050960.650002</v>
+        <v>754050960.65</v>
       </c>
       <c r="EG3" s="35">
         <f>(DW3-DW4)/DW4</f>
@@ -45609,7 +45622,7 @@
       </c>
       <c r="EK3" s="35">
         <f>(EA3-EA4)/EA4</f>
-        <v>0.0530681989846359</v>
+        <v>0.0530681989846358</v>
       </c>
       <c r="EL3" s="35">
         <f>M3/L3</f>
@@ -45866,7 +45879,7 @@
       </c>
       <c r="AB4" s="35">
         <f t="shared" si="0"/>
-        <v>0.0619923987235423</v>
+        <v>0.0619923987235421</v>
       </c>
       <c r="AC4" s="168"/>
       <c r="AD4" s="168">
@@ -46108,7 +46121,7 @@
       </c>
       <c r="CN4" s="165">
         <f t="shared" ref="CN4:CN12" si="79">CI4-CI5</f>
-        <v>-210478468.93</v>
+        <v>-210478468.929999</v>
       </c>
       <c r="CO4" s="165">
         <f t="shared" ref="CO4:CO12" si="80">CJ4-CJ5</f>
@@ -46116,11 +46129,11 @@
       </c>
       <c r="CP4" s="165">
         <f t="shared" ref="CP4:CP12" si="81">CK4-CK5</f>
-        <v>606250.36</v>
+        <v>606250.359999999</v>
       </c>
       <c r="CQ4" s="165">
         <f t="shared" ref="CQ4:CQ12" si="82">CL4-CL5</f>
-        <v>-435378.08</v>
+        <v>-435378.080000001</v>
       </c>
       <c r="CR4" s="165">
         <f t="shared" ref="CR4:CR12" si="83">CM4-CM5</f>
@@ -46128,7 +46141,7 @@
       </c>
       <c r="CS4" s="35">
         <f t="shared" ref="CS4:CS12" si="84">(CI4-CI5)/CI5</f>
-        <v>-0.0850389380781829</v>
+        <v>-0.0850389380781827</v>
       </c>
       <c r="CT4" s="35">
         <f t="shared" ref="CT4:CT12" si="85">(CJ4-CJ5)/CJ5</f>
@@ -46136,7 +46149,7 @@
       </c>
       <c r="CU4" s="35">
         <f t="shared" ref="CU4:CU12" si="86">(CK4-CK5)/CK5</f>
-        <v>0.141380990599356</v>
+        <v>0.141380990599355</v>
       </c>
       <c r="CV4" s="35">
         <f t="shared" ref="CV4:CV12" si="87">(CL4-CL5)/CL5</f>
@@ -46144,7 +46157,7 @@
       </c>
       <c r="CW4" s="35">
         <f t="shared" ref="CW4:CW12" si="88">(CM4-CM5)/CM5</f>
-        <v>-0.0765708136627867</v>
+        <v>-0.0765708136627865</v>
       </c>
       <c r="CX4" s="165"/>
       <c r="CY4" s="165"/>
@@ -46727,7 +46740,7 @@
       </c>
       <c r="CH5" s="37">
         <f t="shared" si="77"/>
-        <v>0.194589346009574</v>
+        <v>0.194589346009575</v>
       </c>
       <c r="CI5" s="165">
         <f t="shared" si="3"/>
@@ -46763,7 +46776,7 @@
       </c>
       <c r="CQ5" s="165">
         <f t="shared" si="82"/>
-        <v>366712.66</v>
+        <v>366712.660000001</v>
       </c>
       <c r="CR5" s="165">
         <f t="shared" si="83"/>
@@ -46783,7 +46796,7 @@
       </c>
       <c r="CV5" s="35">
         <f t="shared" si="87"/>
-        <v>0.26711143884002</v>
+        <v>0.267111438840021</v>
       </c>
       <c r="CW5" s="37">
         <f t="shared" si="88"/>
@@ -47336,7 +47349,7 @@
       </c>
       <c r="CC6" s="165">
         <f t="shared" si="72"/>
-        <v>202342598.55</v>
+        <v>202342598.549999</v>
       </c>
       <c r="CD6" s="35">
         <f t="shared" si="73"/>
@@ -47356,7 +47369,7 @@
       </c>
       <c r="CH6" s="35">
         <f t="shared" si="77"/>
-        <v>0.0853646063161266</v>
+        <v>0.0853646063161262</v>
       </c>
       <c r="CI6" s="165">
         <f t="shared" si="3"/>
@@ -47392,7 +47405,7 @@
       </c>
       <c r="CQ6" s="165">
         <f t="shared" si="82"/>
-        <v>97459.4299999999</v>
+        <v>97459.4299999997</v>
       </c>
       <c r="CR6" s="165">
         <f t="shared" si="83"/>
@@ -47408,11 +47421,11 @@
       </c>
       <c r="CU6" s="35">
         <f t="shared" si="86"/>
-        <v>-0.353541848308002</v>
+        <v>-0.353541848308003</v>
       </c>
       <c r="CV6" s="35">
         <f t="shared" si="87"/>
-        <v>0.0764134041718324</v>
+        <v>0.0764134041718322</v>
       </c>
       <c r="CW6" s="35">
         <f t="shared" si="88"/>
@@ -47518,7 +47531,7 @@
       </c>
       <c r="EK6" s="37">
         <f t="shared" si="98"/>
-        <v>0.22866566129773</v>
+        <v>0.228665661297729</v>
       </c>
       <c r="EL6" s="35">
         <f t="shared" si="99"/>
@@ -47969,7 +47982,7 @@
       </c>
       <c r="CC7" s="165">
         <f t="shared" si="72"/>
-        <v>101077242.17</v>
+        <v>101077242.170001</v>
       </c>
       <c r="CD7" s="35">
         <f t="shared" si="73"/>
@@ -47989,7 +48002,7 @@
       </c>
       <c r="CH7" s="35">
         <f t="shared" si="77"/>
-        <v>0.0445420103203273</v>
+        <v>0.0445420103203275</v>
       </c>
       <c r="CI7" s="165">
         <f t="shared" si="3"/>
@@ -48013,7 +48026,7 @@
       </c>
       <c r="CN7" s="165">
         <f t="shared" si="79"/>
-        <v>-93699536.6500001</v>
+        <v>-93699536.6499996</v>
       </c>
       <c r="CO7" s="165">
         <f t="shared" si="80"/>
@@ -48021,7 +48034,7 @@
       </c>
       <c r="CP7" s="165">
         <f t="shared" si="81"/>
-        <v>-6066310.81</v>
+        <v>-6066310.80999999</v>
       </c>
       <c r="CQ7" s="165">
         <f t="shared" si="82"/>
@@ -48029,11 +48042,11 @@
       </c>
       <c r="CR7" s="165">
         <f t="shared" si="83"/>
-        <v>95857473.5799994</v>
+        <v>95857473.5799999</v>
       </c>
       <c r="CS7" s="35">
         <f t="shared" si="84"/>
-        <v>-0.0386710419813504</v>
+        <v>-0.0386710419813502</v>
       </c>
       <c r="CT7" s="35">
         <f t="shared" si="85"/>
@@ -48049,7 +48062,7 @@
       </c>
       <c r="CW7" s="35">
         <f t="shared" si="88"/>
-        <v>0.0262648632462889</v>
+        <v>0.026264863246289</v>
       </c>
       <c r="CX7" s="165">
         <v>13386836.86</v>
@@ -48127,7 +48140,7 @@
       </c>
       <c r="EF7" s="165">
         <f t="shared" si="93"/>
-        <v>974277270.63</v>
+        <v>974277270.630001</v>
       </c>
       <c r="EG7" s="35">
         <f t="shared" si="94"/>
@@ -49271,7 +49284,7 @@
       </c>
       <c r="CN9" s="165">
         <f t="shared" si="79"/>
-        <v>296712116.06</v>
+        <v>296712116.059999</v>
       </c>
       <c r="CO9" s="165">
         <f t="shared" si="80"/>
@@ -49279,7 +49292,7 @@
       </c>
       <c r="CP9" s="165">
         <f t="shared" si="81"/>
-        <v>-868221.09</v>
+        <v>-868221.090000011</v>
       </c>
       <c r="CQ9" s="165">
         <f t="shared" si="82"/>
@@ -49287,11 +49300,11 @@
       </c>
       <c r="CR9" s="165">
         <f t="shared" si="83"/>
-        <v>566640728.06</v>
+        <v>566640728.059999</v>
       </c>
       <c r="CS9" s="37">
         <f t="shared" si="84"/>
-        <v>0.125090570285925</v>
+        <v>0.125090570285924</v>
       </c>
       <c r="CT9" s="35">
         <f t="shared" si="85"/>
@@ -49299,7 +49312,7 @@
       </c>
       <c r="CU9" s="35">
         <f t="shared" si="86"/>
-        <v>-0.055030014743382</v>
+        <v>-0.0550300147433827</v>
       </c>
       <c r="CV9" s="35">
         <f t="shared" si="87"/>
@@ -49870,7 +49883,7 @@
       </c>
       <c r="CH10" s="37">
         <f t="shared" si="77"/>
-        <v>0.306462241829967</v>
+        <v>0.306462241829968</v>
       </c>
       <c r="CI10" s="165">
         <f t="shared" si="3"/>
@@ -49898,7 +49911,7 @@
       </c>
       <c r="CO10" s="165">
         <f t="shared" si="80"/>
-        <v>99088547.25</v>
+        <v>99088547.2499999</v>
       </c>
       <c r="CP10" s="165">
         <f t="shared" si="81"/>
@@ -50453,7 +50466,7 @@
       </c>
       <c r="CH11" s="37">
         <f t="shared" si="77"/>
-        <v>0.302714044299875</v>
+        <v>0.302714044299874</v>
       </c>
       <c r="CI11" s="165">
         <f t="shared" si="3"/>
@@ -50477,15 +50490,15 @@
       </c>
       <c r="CN11" s="165">
         <f t="shared" si="79"/>
-        <v>763525977.16</v>
+        <v>763525977.160001</v>
       </c>
       <c r="CO11" s="165">
         <f t="shared" si="80"/>
-        <v>76163836.1899999</v>
+        <v>76163836.1900002</v>
       </c>
       <c r="CP11" s="165">
         <f t="shared" si="81"/>
-        <v>-488713.450000003</v>
+        <v>-488713.449999996</v>
       </c>
       <c r="CQ11" s="165">
         <f t="shared" si="82"/>
@@ -50493,7 +50506,7 @@
       </c>
       <c r="CR11" s="165">
         <f t="shared" si="83"/>
-        <v>838005570.2</v>
+        <v>838005570.200001</v>
       </c>
       <c r="CS11" s="37">
         <f t="shared" si="84"/>
@@ -50505,7 +50518,7 @@
       </c>
       <c r="CU11" s="35">
         <f t="shared" si="86"/>
-        <v>-0.0259856502617102</v>
+        <v>-0.0259856502617098</v>
       </c>
       <c r="CV11" s="35">
         <f t="shared" si="87"/>

--- a/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/食品_调味品_肉制品_休闲食品.xlsx
+++ b/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/食品_调味品_肉制品_休闲食品.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27180" windowHeight="13160" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="27180" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="资产表分析" sheetId="1" r:id="rId1"/>
@@ -5119,12 +5119,12 @@
   <sheetPr/>
   <dimension ref="A1:DP184"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X3" sqref="X3:AA11"/>
+      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -62876,7 +62876,7 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
